--- a/phpspreadsheet/files/Employee List.xlsx
+++ b/phpspreadsheet/files/Employee List.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THUCTAP\VENTECH\SUPERPROJECT\hrm\phpspreadsheet\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F157641A-9D66-45B4-A5C7-A6BD9811AB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -337,13 +343,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -370,17 +375,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc5e0b4"/>
+        <fgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFb4c7e7"/>
+        <fgColor rgb="FFB4C7E7"/>
       </patternFill>
     </fill>
   </fills>
@@ -401,16 +406,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -418,56 +423,131 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A79189-8847-6507-25A0-1A8623ECA335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1287780" y="243840"/>
+          <a:ext cx="1447800" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,10 +555,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -516,71 +596,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -608,7 +688,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -631,11 +711,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -644,13 +724,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -660,7 +740,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -669,7 +749,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -678,7 +758,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -686,10 +766,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -754,51 +834,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="52.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="52.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="27.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="11" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="11" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="52" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.09765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,295 +975,293 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:32" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Y2" s="9">
         <v>1</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="9">
         <v>2</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" t="s">
         <v>99</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="9">
         <v>3</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" t="s">
         <v>100</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AB4" t="s">
         <v>102</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" t="s">
         <v>105</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/phpspreadsheet/files/Employee List.xlsx
+++ b/phpspreadsheet/files/Employee List.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THUCTAP\VENTECH\SUPERPROJECT\hrm\phpspreadsheet\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F157641A-9D66-45B4-A5C7-A6BD9811AB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -343,25 +337,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -375,17 +370,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
+        <fgColor rgb="FFc5e0b4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7E7"/>
+        <fgColor rgb="FFb4c7e7"/>
       </patternFill>
     </fill>
   </fills>
@@ -406,16 +401,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -423,131 +418,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A79189-8847-6507-25A0-1A8623ECA335}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1287780" y="243840"/>
-          <a:ext cx="1447800" cy="1325880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill dpi="0" rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="vi-VN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,10 +478,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -596,71 +519,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -688,7 +611,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -711,11 +634,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -724,13 +647,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -740,7 +663,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -749,7 +672,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -758,7 +681,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -766,10 +689,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -834,50 +757,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="52" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.09765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="11" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="52.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="52.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="11" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="11" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="11" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="11" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="11" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="11" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="12" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,293 +899,295 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="10">
         <v>1</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="10">
         <v>2</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AD3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y4" s="10">
         <v>3</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="6" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/phpspreadsheet/files/Employee List.xlsx
+++ b/phpspreadsheet/files/Employee List.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
   <si>
     <t>Employee Code</t>
-  </si>
-  <si>
-    <t>Photo</t>
   </si>
   <si>
     <t>Employee Name</t>
@@ -337,14 +334,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,16 +354,167 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,28 +523,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc5e0b4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb4c7e7"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -401,73 +736,357 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -478,10 +1097,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -519,71 +1138,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -611,7 +1230,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -634,11 +1253,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -647,13 +1266,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -663,7 +1282,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -672,7 +1291,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -681,7 +1300,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -689,10 +1308,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -752,442 +1371,435 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" style="11" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="52.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="52.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="27.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="11" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="12" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.8611111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5740740740741" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5740740740741" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1481481481481" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.8611111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7222222222222" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.8611111111111" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5740740740741" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.8611111111111" style="2" customWidth="1"/>
+    <col min="11" max="12" width="18.1481481481481" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.5740740740741" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.8611111111111" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.1481481481481" style="2" customWidth="1"/>
+    <col min="16" max="17" width="52.0092592592593" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.7222222222222" style="1" customWidth="1"/>
+    <col min="19" max="19" width="27.287037037037" style="1" customWidth="1"/>
+    <col min="20" max="20" width="26.0092592592593" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5740740740741" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.00925925925926" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.8611111111111" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.0092592592593" style="3" customWidth="1"/>
+    <col min="25" max="25" width="13.0092592592593" style="1" customWidth="1"/>
+    <col min="26" max="26" width="22.1481481481481" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.0092592592593" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.0092592592593" style="2" customWidth="1"/>
+    <col min="29" max="29" width="31.1481481481481" style="2" customWidth="1"/>
+    <col min="30" max="30" width="11.7222222222222" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.287037037037" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:31">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:31">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="3" ht="19.5" customHeight="1" spans="1:31">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="1:31">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="I4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="12">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y4" s="10">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AB4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AE4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>105</v>
+      <c r="AE4" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/phpspreadsheet/files/Employee List.xlsx
+++ b/phpspreadsheet/files/Employee List.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THUCTAPSANXUAT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC5B4D-C59B-417A-B6B3-E1453B6E7432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -334,19 +340,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,167 +354,16 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,209 +373,27 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -749,344 +416,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1371,435 +751,436 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.8611111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5740740740741" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5740740740741" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.86111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1481481481481" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.8611111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7222222222222" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.8611111111111" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5740740740741" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.8611111111111" style="2" customWidth="1"/>
-    <col min="11" max="12" width="18.1481481481481" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.5740740740741" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.8611111111111" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.1481481481481" style="2" customWidth="1"/>
-    <col min="16" max="17" width="52.0092592592593" style="2" customWidth="1"/>
-    <col min="18" max="18" width="24.7222222222222" style="1" customWidth="1"/>
-    <col min="19" max="19" width="27.287037037037" style="1" customWidth="1"/>
-    <col min="20" max="20" width="26.0092592592593" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5740740740741" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.00925925925926" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.8611111111111" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.0092592592593" style="3" customWidth="1"/>
-    <col min="25" max="25" width="13.0092592592593" style="1" customWidth="1"/>
-    <col min="26" max="26" width="22.1481481481481" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.0092592592593" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.0092592592593" style="2" customWidth="1"/>
-    <col min="29" max="29" width="31.1481481481481" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.7222222222222" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.287037037037" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="52" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:31">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:31">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="9">
         <v>1</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:31">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>71</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="9">
         <v>2</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:31">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="9">
         <v>3</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" t="s">
         <v>99</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" t="s">
         <v>100</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AD4" t="s">
         <v>104</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AE4" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/phpspreadsheet/files/Employee List.xlsx
+++ b/phpspreadsheet/files/Employee List.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THUCTAP\VENTECH\SUPERPROJECT\hrm\phpspreadsheet\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THUCTAP\VENTECH\PROJECT\hrm\phpspreadsheet\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF056E49-CA16-446F-86D9-0E1BFF9418AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D6FE4B-E6A8-49C7-81E2-A2834699648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -109,7 +109,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>NS01</t>
+    <t>NS04</t>
   </si>
   <si>
     <t>Trần Hoàng Lam</t>
@@ -193,7 +193,7 @@
     <t>HO CHI MINH</t>
   </si>
   <si>
-    <t>NS02</t>
+    <t>NS05</t>
   </si>
   <si>
     <t>Nguyễn Lê Trường Chinh</t>
@@ -265,7 +265,7 @@
     <t>MALAYSIA</t>
   </si>
   <si>
-    <t>NS03</t>
+    <t>NS06</t>
   </si>
   <si>
     <t>Nguyễn Nhật Linh</t>
@@ -341,12 +341,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,13 +354,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -373,27 +373,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -422,37 +418,37 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -470,6 +466,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1207347</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C22D52-BEE5-74F7-E5EF-DDBF6B267196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1424940" y="396240"/>
+          <a:ext cx="1070187" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1207347</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11640D0-3CE6-4EE1-B939-1CE162296301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1424940" y="396240"/>
+          <a:ext cx="1070187" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1207347</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3067F59E-704E-429B-BDF2-587F8DF5E973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1424940" y="396240"/>
+          <a:ext cx="1070187" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,425 +911,428 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="52" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.8984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.09765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.8984375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="28.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="7.8984375" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" customWidth="1"/>
+    <col min="10" max="10" width="20.8984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.8984375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="18.09765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.8984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.09765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="52" style="1" customWidth="1"/>
+    <col min="19" max="19" width="52" customWidth="1"/>
+    <col min="20" max="20" width="24.69921875" customWidth="1"/>
+    <col min="21" max="21" width="27.296875" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" customWidth="1"/>
+    <col min="24" max="24" width="13.3984375" customWidth="1"/>
+    <col min="25" max="25" width="18.8984375" style="2" customWidth="1"/>
+    <col min="26" max="27" width="13" customWidth="1"/>
+    <col min="28" max="28" width="22.09765625" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" customWidth="1"/>
+    <col min="31" max="31" width="31.09765625" customWidth="1"/>
+    <col min="32" max="32" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" ht="19.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="109.8" customHeight="1">
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>45</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>46</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>47</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>49</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="9">
+      <c r="Y2" s="11">
         <v>1</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="108" customHeight="1">
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>63</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>71</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>72</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>73</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>48</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>74</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="9">
+      <c r="Y3" s="11">
         <v>2</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>80</v>
       </c>
       <c r="AE3" t="s">
         <v>80</v>
       </c>
+      <c r="AF3" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="105.6" customHeight="1">
       <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>84</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>85</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>93</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>94</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>95</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>96</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>97</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="9">
+      <c r="Y4" s="11">
         <v>3</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>99</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>100</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AC4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AD4" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>104</v>
       </c>
       <c r="AE4" t="s">
         <v>104</v>
       </c>
+      <c r="AF4" t="s">
+        <v>104</v>
+      </c>
     </row>
+    <row r="9" spans="1:32" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/phpspreadsheet/files/Employee List.xlsx
+++ b/phpspreadsheet/files/Employee List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THUCTAP\VENTECH\SUPERPROJECT\hrm\phpspreadsheet\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THUCTAPSANXUAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF056E49-CA16-446F-86D9-0E1BFF9418AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC5B4D-C59B-417A-B6B3-E1453B6E7432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -762,40 +762,42 @@
   </sheetPr>
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="52" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="52" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.8984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.09765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/phpspreadsheet/files/Employee List.xlsx
+++ b/phpspreadsheet/files/Employee List.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THUCTAPSANXUAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THUCTAP\VENTECH\PROJECT\hrm\phpspreadsheet\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC5B4D-C59B-417A-B6B3-E1453B6E7432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0974D8E-F072-4A5B-B3F4-0F12464931AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>Employee Code</t>
   </si>
   <si>
+    <t>Photo</t>
+  </si>
+  <si>
     <t>Employee Name</t>
   </si>
   <si>
@@ -109,7 +112,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>NS01</t>
+    <t>NS04</t>
   </si>
   <si>
     <t>Trần Hoàng Lam</t>
@@ -193,7 +196,7 @@
     <t>HO CHI MINH</t>
   </si>
   <si>
-    <t>NS02</t>
+    <t>NS05</t>
   </si>
   <si>
     <t>Nguyễn Lê Trường Chinh</t>
@@ -265,7 +268,7 @@
     <t>MALAYSIA</t>
   </si>
   <si>
-    <t>NS03</t>
+    <t>NS06</t>
   </si>
   <si>
     <t>Nguyễn Nhật Linh</t>
@@ -341,12 +344,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,13 +357,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -373,27 +376,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -420,39 +419,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -470,6 +464,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>122928</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1196339</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>701040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54054E94-8A06-9B53-222F-B79C7B6A9DAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1410708" y="243841"/>
+          <a:ext cx="1073411" cy="701039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>122928</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1196339</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>701040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400D85E5-CAAE-48C8-8E4D-4521760D3B34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1410708" y="243841"/>
+          <a:ext cx="1073411" cy="701039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>122928</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1196339</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>701040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D120A26-2B6E-4129-A1FC-4E8A5C76167D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1410708" y="243841"/>
+          <a:ext cx="1073411" cy="701039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,146 +909,144 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="52" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.8984375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="28.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="7.8984375" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" customWidth="1"/>
+    <col min="10" max="10" width="20.8984375" customWidth="1"/>
+    <col min="11" max="11" width="19.59765625" customWidth="1"/>
+    <col min="12" max="12" width="16.8984375" customWidth="1"/>
+    <col min="13" max="14" width="18.09765625" customWidth="1"/>
+    <col min="15" max="15" width="15.59765625" customWidth="1"/>
+    <col min="16" max="16" width="16.8984375" customWidth="1"/>
+    <col min="17" max="17" width="18.09765625" customWidth="1"/>
+    <col min="18" max="19" width="52" customWidth="1"/>
+    <col min="20" max="20" width="24.69921875" customWidth="1"/>
+    <col min="21" max="21" width="27.296875" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" customWidth="1"/>
+    <col min="24" max="24" width="13.3984375" customWidth="1"/>
+    <col min="25" max="25" width="18.8984375" style="1" customWidth="1"/>
+    <col min="26" max="27" width="13" customWidth="1"/>
+    <col min="28" max="28" width="22.09765625" customWidth="1"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="30" max="30" width="22.296875" customWidth="1"/>
+    <col min="31" max="31" width="20" customWidth="1"/>
+    <col min="32" max="32" width="14.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" ht="19.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="60.6" customHeight="1">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
@@ -920,34 +1067,34 @@
       <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="S2" t="s">
@@ -965,36 +1112,36 @@
       <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="10">
         <v>1</v>
       </c>
-      <c r="Y2" t="s">
-        <v>45</v>
-      </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" t="s">
         <v>53</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="AE2" t="s">
         <v>56</v>
       </c>
+      <c r="AF2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="54.6" customHeight="1">
       <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
@@ -1013,36 +1160,36 @@
         <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="P3" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="Q3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>71</v>
       </c>
       <c r="S3" t="s">
@@ -1052,92 +1199,92 @@
         <v>73</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="W3" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="10">
         <v>2</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>76</v>
       </c>
       <c r="Z3" t="s">
         <v>77</v>
       </c>
       <c r="AA3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="8" t="s">
         <v>78</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>53</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="8" t="s">
         <v>80</v>
       </c>
       <c r="AE3" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="66.599999999999994" customHeight="1">
       <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
         <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="O4" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="P4" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="Q4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="8" t="s">
         <v>93</v>
       </c>
       <c r="S4" t="s">
@@ -1155,11 +1302,11 @@
       <c r="W4" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y4" s="10">
         <v>3</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>99</v>
       </c>
       <c r="Z4" t="s">
         <v>100</v>
@@ -1167,20 +1314,24 @@
       <c r="AA4" t="s">
         <v>101</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" t="s">
         <v>102</v>
       </c>
       <c r="AC4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="8" t="s">
         <v>104</v>
       </c>
       <c r="AE4" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>